--- a/python_releases_PW.xlsx
+++ b/python_releases_PW.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Download</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Click for more</t>
+          <t>Release Notes</t>
         </is>
       </c>
     </row>
